--- a/Kurasik/doc/DIN8SW8 - Mala rozdzielnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Mala rozdzielnia.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="144">
   <si>
     <t>Pomieszczenie</t>
   </si>
@@ -315,24 +315,12 @@
     <t>kule kuchnia</t>
   </si>
   <si>
-    <t>led 1.06</t>
-  </si>
-  <si>
     <t>led 1.08</t>
   </si>
   <si>
     <t>obw_211</t>
   </si>
   <si>
-    <t>obw_212</t>
-  </si>
-  <si>
-    <t>dyzurka A</t>
-  </si>
-  <si>
-    <t>dyzurka B i C</t>
-  </si>
-  <si>
     <t>impuls (1s)</t>
   </si>
   <si>
@@ -408,9 +396,6 @@
     <t>Piazza do furtki</t>
   </si>
   <si>
-    <t>Piazza wzdłuż płotu</t>
-  </si>
-  <si>
     <t>Parapety 2</t>
   </si>
   <si>
@@ -426,27 +411,15 @@
     <t>obw_155</t>
   </si>
   <si>
-    <t>obw_156</t>
-  </si>
-  <si>
     <t>obw_157</t>
   </si>
   <si>
-    <t>obw_149</t>
-  </si>
-  <si>
-    <t>obw_150</t>
-  </si>
-  <si>
     <t>obw_151</t>
   </si>
   <si>
     <t>obw_152</t>
   </si>
   <si>
-    <t>obw_153</t>
-  </si>
-  <si>
     <t>obw_158</t>
   </si>
   <si>
@@ -466,6 +439,18 @@
   </si>
   <si>
     <t>lampy płot ???</t>
+  </si>
+  <si>
+    <t>dyzurka</t>
+  </si>
+  <si>
+    <t>obw_151 (3B/3)</t>
+  </si>
+  <si>
+    <t>obw_155 (36/2)</t>
+  </si>
+  <si>
+    <t>gn_25 (31/6)</t>
   </si>
 </sst>
 </file>
@@ -555,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -627,6 +612,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -941,7 +929,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -951,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,7 +1006,7 @@
         <v>2</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -1082,7 +1070,7 @@
       <c r="M3" s="3">
         <v>1</v>
       </c>
-      <c r="N3" s="25"/>
+      <c r="N3" s="26"/>
       <c r="O3" s="4" t="s">
         <v>87</v>
       </c>
@@ -1095,11 +1083,11 @@
       <c r="U3" s="3">
         <v>1</v>
       </c>
-      <c r="V3" s="26" t="s">
-        <v>125</v>
+      <c r="V3" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="W3" s="23" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -1124,7 +1112,7 @@
       <c r="M4" s="3">
         <v>2</v>
       </c>
-      <c r="N4" s="25"/>
+      <c r="N4" s="26"/>
       <c r="O4" s="4" t="s">
         <v>87</v>
       </c>
@@ -1132,14 +1120,14 @@
         <v>2</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="U4" s="3">
         <v>2</v>
       </c>
-      <c r="V4" s="26"/>
+      <c r="V4" s="27"/>
       <c r="W4" s="23" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -1168,25 +1156,25 @@
         <v>3</v>
       </c>
       <c r="N5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="O5" s="25" t="s">
         <v>131</v>
-      </c>
-      <c r="O5" s="21" t="s">
-        <v>137</v>
       </c>
       <c r="Q5" s="3">
         <v>3</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="U5" s="3">
         <v>3</v>
       </c>
-      <c r="V5" s="26" t="s">
-        <v>124</v>
+      <c r="V5" s="27" t="s">
+        <v>120</v>
       </c>
       <c r="W5" s="23" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -1212,23 +1200,23 @@
         <v>4</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>141</v>
       </c>
       <c r="Q6" s="3">
         <v>4</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="U6" s="3">
         <v>4</v>
       </c>
-      <c r="V6" s="26"/>
+      <c r="V6" s="27"/>
       <c r="W6" s="23" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -1254,16 +1242,16 @@
         <v>5</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>139</v>
+        <v>128</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>141</v>
       </c>
       <c r="Q7" s="3">
         <v>5</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="U7" s="3">
         <v>5</v>
@@ -1300,7 +1288,7 @@
         <v>6</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="S8" s="4" t="s">
         <v>70</v>
@@ -1335,10 +1323,10 @@
         <v>7</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="Q9" s="3">
         <v>7</v>
@@ -1375,19 +1363,19 @@
         <v>8</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q10" s="3">
         <v>8</v>
       </c>
       <c r="R10" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="U10" s="3">
         <v>8</v>
@@ -1490,10 +1478,10 @@
         <v>1</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O15" s="21" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="Q15" s="3">
         <v>1</v>
@@ -1513,10 +1501,10 @@
         <v>2</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I16" s="3">
         <v>2</v>
@@ -1529,16 +1517,16 @@
         <v>2</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="O16" s="23" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="Q16" s="3">
         <v>2</v>
       </c>
-      <c r="S16" s="15" t="s">
-        <v>123</v>
+      <c r="S16" s="25" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -1564,20 +1552,16 @@
       <c r="M17" s="3">
         <v>3</v>
       </c>
-      <c r="N17" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="O17" s="21" t="s">
-        <v>141</v>
-      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="8"/>
       <c r="Q17" s="3">
         <v>3</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -1604,10 +1588,10 @@
         <v>4</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="O18" s="13" t="s">
-        <v>145</v>
+        <v>139</v>
+      </c>
+      <c r="O18" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="Q18" s="3">
         <v>4</v>
@@ -1632,20 +1616,16 @@
       <c r="I19" s="3">
         <v>5</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="K19" s="24" t="s">
-        <v>60</v>
-      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="8"/>
       <c r="M19" s="3">
         <v>5</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="O19" s="21" t="s">
-        <v>135</v>
+        <v>125</v>
+      </c>
+      <c r="O19" s="24" t="s">
+        <v>142</v>
       </c>
       <c r="Q19" s="3">
         <v>5</v>
@@ -1678,19 +1658,19 @@
         <v>6</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O20" s="24" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="Q20" s="3">
         <v>6</v>
       </c>
       <c r="R20" s="19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="S20" s="23" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -1725,7 +1705,7 @@
       </c>
       <c r="R21" s="12"/>
       <c r="S21" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -1759,7 +1739,7 @@
       </c>
       <c r="R22" s="12"/>
       <c r="S22" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -1845,7 +1825,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>71</v>
@@ -1854,19 +1834,19 @@
         <v>1</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="Q26" s="3">
         <v>1</v>
       </c>
       <c r="R26" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -1900,12 +1880,7 @@
       <c r="Q27" s="3">
         <v>2</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="S27" s="15" t="s">
-        <v>100</v>
-      </c>
+      <c r="S27" s="8"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
@@ -1937,10 +1912,10 @@
         <v>3</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="S28" s="15" t="s">
-        <v>101</v>
+        <v>140</v>
+      </c>
+      <c r="S28" s="25" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -1999,7 +1974,7 @@
         <v>72</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="M30" s="5">
         <v>5</v>
@@ -2012,7 +1987,7 @@
         <v>5</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="S30" s="4" t="s">
         <v>68</v>
@@ -2029,7 +2004,7 @@
         <v>6</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I31" s="3">
         <v>6</v>
@@ -2081,7 +2056,7 @@
         <v>7</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="S32" s="4" t="s">
         <v>69</v>

--- a/Kurasik/doc/DIN8SW8 - Mala rozdzielnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Mala rozdzielnia.xlsx
@@ -929,7 +929,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -939,7 +939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>

--- a/Kurasik/doc/DIN8SW8 - Mala rozdzielnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Mala rozdzielnia.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="146">
   <si>
     <t>Pomieszczenie</t>
   </si>
@@ -451,6 +451,12 @@
   </si>
   <si>
     <t>gn_25 (31/6)</t>
+  </si>
+  <si>
+    <t>promiennik przy jadalni A</t>
+  </si>
+  <si>
+    <t>promiennik przy jadalni B</t>
   </si>
 </sst>
 </file>
@@ -929,7 +935,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -939,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1553,7 +1559,9 @@
         <v>3</v>
       </c>
       <c r="N17" s="4"/>
-      <c r="O17" s="8"/>
+      <c r="O17" s="16" t="s">
+        <v>145</v>
+      </c>
       <c r="Q17" s="3">
         <v>3</v>
       </c>
@@ -1880,7 +1888,9 @@
       <c r="Q27" s="3">
         <v>2</v>
       </c>
-      <c r="S27" s="8"/>
+      <c r="S27" s="16" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="3">

--- a/Kurasik/doc/DIN8SW8 - Mala rozdzielnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Mala rozdzielnia.xlsx
@@ -935,7 +935,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -946,7 +946,7 @@
   <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Kurasik/doc/DIN8SW8 - Mala rozdzielnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Mala rozdzielnia.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="147">
   <si>
     <t>Pomieszczenie</t>
   </si>
@@ -294,9 +294,6 @@
     <t>niewykorzystane</t>
   </si>
   <si>
-    <t>nowe</t>
-  </si>
-  <si>
     <t>usunięte</t>
   </si>
   <si>
@@ -457,6 +454,12 @@
   </si>
   <si>
     <t>promiennik przy jadalni B</t>
+  </si>
+  <si>
+    <t>niezaprogramowane (nowe)</t>
+  </si>
+  <si>
+    <t>spięte programowo (ten sam obwód, różne kanały)</t>
   </si>
 </sst>
 </file>
@@ -546,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -628,6 +631,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -935,7 +941,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -943,10 +949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,7 +1018,7 @@
         <v>2</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -1090,10 +1096,10 @@
         <v>1</v>
       </c>
       <c r="V3" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="W3" s="23" t="s">
         <v>121</v>
-      </c>
-      <c r="W3" s="23" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -1126,14 +1132,14 @@
         <v>2</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U4" s="3">
         <v>2</v>
       </c>
       <c r="V4" s="27"/>
       <c r="W4" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -1147,10 +1153,10 @@
         <v>3</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I5" s="3">
         <v>3</v>
@@ -1162,25 +1168,25 @@
         <v>3</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O5" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q5" s="3">
         <v>3</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U5" s="3">
         <v>3</v>
       </c>
       <c r="V5" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W5" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -1206,23 +1212,23 @@
         <v>4</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O6" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q6" s="3">
         <v>4</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U6" s="3">
         <v>4</v>
       </c>
       <c r="V6" s="27"/>
       <c r="W6" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -1248,16 +1254,16 @@
         <v>5</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O7" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q7" s="3">
         <v>5</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U7" s="3">
         <v>5</v>
@@ -1294,7 +1300,7 @@
         <v>6</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S8" s="4" t="s">
         <v>70</v>
@@ -1329,10 +1335,10 @@
         <v>7</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q9" s="3">
         <v>7</v>
@@ -1369,19 +1375,19 @@
         <v>8</v>
       </c>
       <c r="N10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="Q10" s="3">
         <v>8</v>
       </c>
       <c r="R10" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U10" s="3">
         <v>8</v>
@@ -1484,10 +1490,10 @@
         <v>1</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O15" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q15" s="3">
         <v>1</v>
@@ -1507,10 +1513,10 @@
         <v>2</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I16" s="3">
         <v>2</v>
@@ -1523,16 +1529,16 @@
         <v>2</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O16" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q16" s="3">
         <v>2</v>
       </c>
       <c r="S16" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -1560,16 +1566,16 @@
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q17" s="3">
         <v>3</v>
       </c>
       <c r="R17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="S17" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -1596,10 +1602,10 @@
         <v>4</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O18" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q18" s="3">
         <v>4</v>
@@ -1630,10 +1636,10 @@
         <v>5</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O19" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="3">
         <v>5</v>
@@ -1666,19 +1672,19 @@
         <v>6</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O20" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="3">
         <v>6</v>
       </c>
       <c r="R20" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="S20" s="23" t="s">
         <v>108</v>
-      </c>
-      <c r="S20" s="23" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -1713,7 +1719,7 @@
       </c>
       <c r="R21" s="12"/>
       <c r="S21" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -1747,7 +1753,7 @@
       </c>
       <c r="R22" s="12"/>
       <c r="S22" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -1833,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>71</v>
@@ -1842,19 +1848,19 @@
         <v>1</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q26" s="3">
         <v>1</v>
       </c>
       <c r="R26" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -1889,7 +1895,7 @@
         <v>2</v>
       </c>
       <c r="S27" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -1922,10 +1928,10 @@
         <v>3</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S28" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -1958,10 +1964,10 @@
         <v>4</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -1984,7 +1990,7 @@
         <v>72</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M30" s="5">
         <v>5</v>
@@ -1997,7 +2003,7 @@
         <v>5</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S30" s="4" t="s">
         <v>68</v>
@@ -2014,7 +2020,7 @@
         <v>6</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I31" s="3">
         <v>6</v>
@@ -2066,7 +2072,7 @@
         <v>7</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S32" s="4" t="s">
         <v>69</v>
@@ -2103,12 +2109,12 @@
       </c>
       <c r="R33" s="5"/>
       <c r="S33" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G35" s="16" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -2128,7 +2134,12 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G39" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="G40" s="28" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/Kurasik/doc/DIN8SW8 - Mala rozdzielnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Mala rozdzielnia.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="145">
   <si>
     <t>Pomieszczenie</t>
   </si>
@@ -156,18 +156,12 @@
     <t>obw_17</t>
   </si>
   <si>
-    <t>obw_18</t>
-  </si>
-  <si>
     <t>obw_5</t>
   </si>
   <si>
     <t>obw_7</t>
   </si>
   <si>
-    <t>obw_6</t>
-  </si>
-  <si>
     <t>obw_30</t>
   </si>
   <si>
@@ -258,9 +252,6 @@
     <t>zal_055_Otwórz</t>
   </si>
   <si>
-    <t>obw_205</t>
-  </si>
-  <si>
     <t>obw_204</t>
   </si>
   <si>
@@ -306,12 +297,6 @@
     <t>pralnia</t>
   </si>
   <si>
-    <t>obw_202</t>
-  </si>
-  <si>
-    <t>kule kuchnia</t>
-  </si>
-  <si>
     <t>led 1.08</t>
   </si>
   <si>
@@ -447,9 +432,6 @@
     <t>obw_155 (36/2)</t>
   </si>
   <si>
-    <t>gn_25 (31/6)</t>
-  </si>
-  <si>
     <t>promiennik przy jadalni A</t>
   </si>
   <si>
@@ -460,6 +442,18 @@
   </si>
   <si>
     <t>spięte programowo (ten sam obwód, różne kanały)</t>
+  </si>
+  <si>
+    <t>obw_27</t>
+  </si>
+  <si>
+    <t>obw_26</t>
+  </si>
+  <si>
+    <t>gn_23</t>
+  </si>
+  <si>
+    <t>gn_020</t>
   </si>
 </sst>
 </file>
@@ -549,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -634,6 +628,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -941,7 +941,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -951,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35:G40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,7 +1018,7 @@
         <v>2</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -1077,29 +1077,29 @@
         <v>1</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M3" s="3">
         <v>1</v>
       </c>
-      <c r="N3" s="26"/>
+      <c r="N3" s="29"/>
       <c r="O3" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q3" s="3">
         <v>1</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U3" s="3">
         <v>1</v>
       </c>
-      <c r="V3" s="27" t="s">
-        <v>120</v>
+      <c r="V3" s="30" t="s">
+        <v>115</v>
       </c>
       <c r="W3" s="23" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -1119,27 +1119,27 @@
         <v>2</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M4" s="3">
         <v>2</v>
       </c>
-      <c r="N4" s="26"/>
+      <c r="N4" s="29"/>
       <c r="O4" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q4" s="3">
         <v>2</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="U4" s="3">
         <v>2</v>
       </c>
-      <c r="V4" s="27"/>
+      <c r="V4" s="30"/>
       <c r="W4" s="23" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -1152,12 +1152,7 @@
       <c r="E5" s="3">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>95</v>
-      </c>
+      <c r="G5" s="8"/>
       <c r="I5" s="3">
         <v>3</v>
       </c>
@@ -1168,25 +1163,25 @@
         <v>3</v>
       </c>
       <c r="N5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="O5" s="25" t="s">
         <v>125</v>
-      </c>
-      <c r="O5" s="25" t="s">
-        <v>130</v>
       </c>
       <c r="Q5" s="3">
         <v>3</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="U5" s="3">
         <v>3</v>
       </c>
-      <c r="V5" s="27" t="s">
-        <v>119</v>
+      <c r="V5" s="30" t="s">
+        <v>114</v>
       </c>
       <c r="W5" s="23" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -1200,7 +1195,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I6" s="3">
         <v>4</v>
@@ -1212,23 +1207,23 @@
         <v>4</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="O6" s="24" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q6" s="3">
         <v>4</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="U6" s="3">
         <v>4</v>
       </c>
-      <c r="V6" s="27"/>
+      <c r="V6" s="30"/>
       <c r="W6" s="23" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -1242,7 +1237,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I7" s="3">
         <v>5</v>
@@ -1254,16 +1249,16 @@
         <v>5</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="O7" s="24" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q7" s="3">
         <v>5</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="U7" s="3">
         <v>5</v>
@@ -1294,16 +1289,16 @@
         <v>6</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q8" s="3">
         <v>6</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="U8" s="3">
         <v>6</v>
@@ -1323,22 +1318,22 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I9" s="3">
         <v>7</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M9" s="3">
         <v>7</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="Q9" s="3">
         <v>7</v>
@@ -1369,25 +1364,25 @@
         <v>8</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M10" s="3">
         <v>8</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Q10" s="3">
         <v>8</v>
       </c>
       <c r="R10" s="20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="U10" s="3">
         <v>8</v>
@@ -1477,29 +1472,29 @@
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I15" s="3">
         <v>1</v>
       </c>
       <c r="J15" s="12"/>
       <c r="K15" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M15" s="3">
         <v>1</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="O15" s="21" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="Q15" s="3">
         <v>1</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -1513,32 +1508,32 @@
         <v>2</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I16" s="3">
         <v>2</v>
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M16" s="3">
         <v>2</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="O16" s="23" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="Q16" s="3">
         <v>2</v>
       </c>
       <c r="S16" s="25" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -1553,29 +1548,29 @@
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I17" s="3">
         <v>3</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M17" s="3">
         <v>3</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="16" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="Q17" s="3">
         <v>3</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -1590,28 +1585,28 @@
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I18" s="3">
         <v>4</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M18" s="3">
         <v>4</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="O18" s="25" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="3">
         <v>4</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -1631,21 +1626,23 @@
         <v>5</v>
       </c>
       <c r="J19" s="5"/>
-      <c r="K19" s="8"/>
+      <c r="K19" s="27" t="s">
+        <v>141</v>
+      </c>
       <c r="M19" s="3">
         <v>5</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="O19" s="24" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="Q19" s="3">
         <v>5</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -1660,31 +1657,31 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I20" s="3">
         <v>6</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M20" s="3">
         <v>6</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="O20" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="O20" s="9" t="s">
         <v>142</v>
       </c>
       <c r="Q20" s="3">
         <v>6</v>
       </c>
       <c r="R20" s="19" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="S20" s="23" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -1705,21 +1702,21 @@
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M21" s="3">
         <v>7</v>
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q21" s="3">
         <v>7</v>
       </c>
       <c r="R21" s="12"/>
       <c r="S21" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -1740,20 +1737,20 @@
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M22" s="3">
         <v>8</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q22" s="3">
         <v>8</v>
       </c>
       <c r="R22" s="12"/>
       <c r="S22" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -1839,28 +1836,28 @@
         <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M26" s="5">
         <v>1</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="Q26" s="3">
         <v>1</v>
       </c>
       <c r="R26" s="20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -1875,14 +1872,14 @@
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I27" s="3">
         <v>2</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M27" s="5">
         <v>2</v>
@@ -1895,7 +1892,7 @@
         <v>2</v>
       </c>
       <c r="S27" s="16" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -1915,7 +1912,7 @@
         <v>3</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M28" s="5">
         <v>3</v>
@@ -1928,10 +1925,10 @@
         <v>3</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="S28" s="25" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -1944,9 +1941,7 @@
       <c r="E29" s="3">
         <v>4</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="G29" s="8"/>
       <c r="I29" s="3">
         <v>4</v>
       </c>
@@ -1958,16 +1953,16 @@
       </c>
       <c r="N29" s="5"/>
       <c r="O29" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q29" s="3">
         <v>4</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -1981,32 +1976,32 @@
         <v>5</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" s="3">
         <v>5</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M30" s="5">
         <v>5</v>
       </c>
       <c r="N30" s="5"/>
       <c r="O30" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q30" s="3">
         <v>5</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -2020,13 +2015,13 @@
         <v>6</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I31" s="3">
         <v>6</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M31" s="5">
         <v>6</v>
@@ -2039,7 +2034,7 @@
         <v>6</v>
       </c>
       <c r="S31" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -2053,29 +2048,29 @@
         <v>7</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I32" s="3">
         <v>7</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M32" s="5">
         <v>7</v>
       </c>
       <c r="N32" s="5"/>
-      <c r="O32" s="9" t="s">
-        <v>79</v>
+      <c r="O32" s="26" t="s">
+        <v>143</v>
       </c>
       <c r="Q32" s="3">
         <v>7</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -2088,58 +2083,58 @@
       <c r="E33" s="3">
         <v>8</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>48</v>
+      <c r="G33" s="27" t="s">
+        <v>144</v>
       </c>
       <c r="I33" s="3">
         <v>8</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M33" s="5">
         <v>8</v>
       </c>
       <c r="N33" s="5"/>
       <c r="O33" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q33" s="3">
         <v>8</v>
       </c>
       <c r="R33" s="5"/>
       <c r="S33" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G35" s="16" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G36" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G37" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G38" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G39" s="17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="G40" s="28" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Kurasik/doc/DIN8SW8 - Mala rozdzielnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Mala rozdzielnia.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="146">
   <si>
     <t>Pomieszczenie</t>
   </si>
@@ -454,6 +454,9 @@
   </si>
   <si>
     <t>gn_020</t>
+  </si>
+  <si>
+    <t>obw_25</t>
   </si>
 </sst>
 </file>
@@ -543,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -628,6 +631,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -941,7 +947,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -952,7 +958,7 @@
   <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,7 +1088,7 @@
       <c r="M3" s="3">
         <v>1</v>
       </c>
-      <c r="N3" s="29"/>
+      <c r="N3" s="30"/>
       <c r="O3" s="4" t="s">
         <v>84</v>
       </c>
@@ -1095,7 +1101,7 @@
       <c r="U3" s="3">
         <v>1</v>
       </c>
-      <c r="V3" s="30" t="s">
+      <c r="V3" s="31" t="s">
         <v>115</v>
       </c>
       <c r="W3" s="23" t="s">
@@ -1124,7 +1130,7 @@
       <c r="M4" s="3">
         <v>2</v>
       </c>
-      <c r="N4" s="29"/>
+      <c r="N4" s="30"/>
       <c r="O4" s="4" t="s">
         <v>84</v>
       </c>
@@ -1137,7 +1143,7 @@
       <c r="U4" s="3">
         <v>2</v>
       </c>
-      <c r="V4" s="30"/>
+      <c r="V4" s="31"/>
       <c r="W4" s="23" t="s">
         <v>116</v>
       </c>
@@ -1152,7 +1158,9 @@
       <c r="E5" s="3">
         <v>3</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="29" t="s">
+        <v>145</v>
+      </c>
       <c r="I5" s="3">
         <v>3</v>
       </c>
@@ -1177,7 +1185,7 @@
       <c r="U5" s="3">
         <v>3</v>
       </c>
-      <c r="V5" s="30" t="s">
+      <c r="V5" s="31" t="s">
         <v>114</v>
       </c>
       <c r="W5" s="23" t="s">
@@ -1221,7 +1229,7 @@
       <c r="U6" s="3">
         <v>4</v>
       </c>
-      <c r="V6" s="30"/>
+      <c r="V6" s="31"/>
       <c r="W6" s="23" t="s">
         <v>117</v>
       </c>

--- a/Kurasik/doc/DIN8SW8 - Mala rozdzielnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Mala rozdzielnia.xlsx
@@ -947,7 +947,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Kurasik/doc/DIN8SW8 - Mala rozdzielnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Mala rozdzielnia.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="147">
   <si>
     <t>Pomieszczenie</t>
   </si>
@@ -120,18 +120,6 @@
     <t>3F/15</t>
   </si>
   <si>
-    <t>gn_22</t>
-  </si>
-  <si>
-    <t>gn_24</t>
-  </si>
-  <si>
-    <t>gn_25</t>
-  </si>
-  <si>
-    <t>gn_26</t>
-  </si>
-  <si>
     <t>obw_32</t>
   </si>
   <si>
@@ -177,12 +165,6 @@
     <t>obw_45</t>
   </si>
   <si>
-    <t>gn_38</t>
-  </si>
-  <si>
-    <t>gn_42</t>
-  </si>
-  <si>
     <t>rol_128</t>
   </si>
   <si>
@@ -252,12 +234,6 @@
     <t>zal_055_Otwórz</t>
   </si>
   <si>
-    <t>obw_204</t>
-  </si>
-  <si>
-    <t>obw_201</t>
-  </si>
-  <si>
     <t>rol_301</t>
   </si>
   <si>
@@ -291,18 +267,12 @@
     <t>obw_48</t>
   </si>
   <si>
-    <t>gn_27</t>
-  </si>
-  <si>
     <t>pralnia</t>
   </si>
   <si>
     <t>led 1.08</t>
   </si>
   <si>
-    <t>obw_211</t>
-  </si>
-  <si>
     <t>impuls (1s)</t>
   </si>
   <si>
@@ -330,9 +300,6 @@
     <t>garaz</t>
   </si>
   <si>
-    <t>obw_213</t>
-  </si>
-  <si>
     <t>zew. B</t>
   </si>
   <si>
@@ -342,12 +309,6 @@
     <t>obw_4</t>
   </si>
   <si>
-    <t>gn_43</t>
-  </si>
-  <si>
-    <t>gn_44</t>
-  </si>
-  <si>
     <t>BramaGarażowa_Prawa</t>
   </si>
   <si>
@@ -450,13 +411,55 @@
     <t>obw_26</t>
   </si>
   <si>
-    <t>gn_23</t>
-  </si>
-  <si>
-    <t>gn_020</t>
-  </si>
-  <si>
     <t>obw_25</t>
+  </si>
+  <si>
+    <t>obw_49</t>
+  </si>
+  <si>
+    <t>obw_6</t>
+  </si>
+  <si>
+    <t>obw_11</t>
+  </si>
+  <si>
+    <t>obw_10</t>
+  </si>
+  <si>
+    <t>gn_113</t>
+  </si>
+  <si>
+    <t>gn_119</t>
+  </si>
+  <si>
+    <t>wczesniej 26</t>
+  </si>
+  <si>
+    <t>gn_115</t>
+  </si>
+  <si>
+    <t>gn_118</t>
+  </si>
+  <si>
+    <t>gn_116</t>
+  </si>
+  <si>
+    <t>gn_121</t>
+  </si>
+  <si>
+    <t>gn_122</t>
+  </si>
+  <si>
+    <t>gn_123</t>
+  </si>
+  <si>
+    <t>gn_124</t>
+  </si>
+  <si>
+    <t>gn_117</t>
+  </si>
+  <si>
+    <t>gn_120</t>
   </si>
 </sst>
 </file>
@@ -947,7 +950,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -958,7 +961,7 @@
   <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,7 +1027,7 @@
         <v>2</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -1083,29 +1086,29 @@
         <v>1</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="M3" s="3">
         <v>1</v>
       </c>
       <c r="N3" s="30"/>
       <c r="O3" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="3">
         <v>1</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="U3" s="3">
         <v>1</v>
       </c>
       <c r="V3" s="31" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="W3" s="23" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -1125,27 +1128,27 @@
         <v>2</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="M4" s="3">
         <v>2</v>
       </c>
       <c r="N4" s="30"/>
       <c r="O4" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="3">
         <v>2</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="U4" s="3">
         <v>2</v>
       </c>
       <c r="V4" s="31"/>
       <c r="W4" s="23" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -1159,7 +1162,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="I5" s="3">
         <v>3</v>
@@ -1171,25 +1174,25 @@
         <v>3</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="O5" s="25" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="Q5" s="3">
         <v>3</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="U5" s="3">
         <v>3</v>
       </c>
       <c r="V5" s="31" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="W5" s="23" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -1203,7 +1206,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I6" s="3">
         <v>4</v>
@@ -1215,23 +1218,23 @@
         <v>4</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="O6" s="24" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="Q6" s="3">
         <v>4</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="U6" s="3">
         <v>4</v>
       </c>
       <c r="V6" s="31"/>
       <c r="W6" s="23" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -1245,7 +1248,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I7" s="3">
         <v>5</v>
@@ -1257,16 +1260,16 @@
         <v>5</v>
       </c>
       <c r="N7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O7" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="O7" s="24" t="s">
-        <v>135</v>
       </c>
       <c r="Q7" s="3">
         <v>5</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="U7" s="3">
         <v>5</v>
@@ -1285,7 +1288,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I8" s="3">
         <v>6</v>
@@ -1297,16 +1300,16 @@
         <v>6</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="3">
         <v>6</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="U8" s="3">
         <v>6</v>
@@ -1326,28 +1329,28 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I9" s="3">
         <v>7</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M9" s="3">
         <v>7</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="Q9" s="3">
         <v>7</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="U9" s="3">
         <v>7</v>
@@ -1366,31 +1369,31 @@
         <v>8</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I10" s="3">
         <v>8</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M10" s="3">
         <v>8</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="Q10" s="3">
         <v>8</v>
       </c>
       <c r="R10" s="20" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="U10" s="3">
         <v>8</v>
@@ -1480,29 +1483,29 @@
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I15" s="3">
         <v>1</v>
       </c>
       <c r="J15" s="12"/>
       <c r="K15" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="M15" s="3">
         <v>1</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="O15" s="21" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="Q15" s="3">
         <v>1</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -1516,32 +1519,32 @@
         <v>2</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="I16" s="3">
         <v>2</v>
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="M16" s="3">
         <v>2</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="O16" s="23" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="Q16" s="3">
         <v>2</v>
       </c>
       <c r="S16" s="25" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -1556,29 +1559,29 @@
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I17" s="3">
         <v>3</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M17" s="3">
         <v>3</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="16" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="Q17" s="3">
         <v>3</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -1593,28 +1596,28 @@
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I18" s="3">
         <v>4</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M18" s="3">
         <v>4</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="O18" s="25" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="Q18" s="3">
         <v>4</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -1628,29 +1631,29 @@
         <v>5</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I19" s="3">
         <v>5</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="27" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="M19" s="3">
         <v>5</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="O19" s="24" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="Q19" s="3">
         <v>5</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -1665,31 +1668,31 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I20" s="3">
         <v>6</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M20" s="3">
         <v>6</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="Q20" s="3">
         <v>6</v>
       </c>
       <c r="R20" s="19" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="S20" s="23" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -1703,28 +1706,28 @@
         <v>7</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I21" s="3">
         <v>7</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="M21" s="3">
         <v>7</v>
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="4" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="Q21" s="3">
         <v>7</v>
       </c>
       <c r="R21" s="12"/>
       <c r="S21" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -1738,27 +1741,27 @@
         <v>8</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I22" s="3">
         <v>8</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M22" s="3">
         <v>8</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Q22" s="3">
         <v>8</v>
       </c>
       <c r="R22" s="12"/>
       <c r="S22" s="4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -1838,34 +1841,34 @@
         <v>1</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I26" s="3">
         <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M26" s="5">
+        <v>1</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>1</v>
+      </c>
+      <c r="R26" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="S26" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M26" s="5">
-        <v>1</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="O26" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>1</v>
-      </c>
-      <c r="R26" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="S26" s="9" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -1880,27 +1883,29 @@
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I27" s="3">
         <v>2</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="M27" s="5">
         <v>2</v>
       </c>
-      <c r="N27" s="5"/>
+      <c r="N27" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="O27" s="5" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="Q27" s="3">
         <v>2</v>
       </c>
       <c r="S27" s="16" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -1914,29 +1919,29 @@
         <v>3</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I28" s="3">
         <v>3</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="M28" s="5">
         <v>3</v>
       </c>
       <c r="N28" s="5"/>
       <c r="O28" s="9" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="Q28" s="3">
         <v>3</v>
       </c>
       <c r="R28" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="S28" s="25" t="s">
         <v>134</v>
-      </c>
-      <c r="S28" s="25" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -1954,23 +1959,23 @@
         <v>4</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M29" s="5">
         <v>4</v>
       </c>
       <c r="N29" s="5"/>
       <c r="O29" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q29" s="3">
         <v>4</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -1984,32 +1989,32 @@
         <v>5</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I30" s="3">
         <v>5</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="M30" s="5">
         <v>5</v>
       </c>
       <c r="N30" s="5"/>
       <c r="O30" s="9" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="Q30" s="3">
         <v>5</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -2023,26 +2028,26 @@
         <v>6</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="I31" s="3">
         <v>6</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M31" s="5">
         <v>6</v>
       </c>
       <c r="N31" s="5"/>
       <c r="O31" s="5" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="Q31" s="3">
         <v>6</v>
       </c>
       <c r="S31" s="15" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -2056,29 +2061,29 @@
         <v>7</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I32" s="3">
         <v>7</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="M32" s="5">
         <v>7</v>
       </c>
       <c r="N32" s="5"/>
       <c r="O32" s="26" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Q32" s="3">
         <v>7</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -2092,57 +2097,57 @@
         <v>8</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="I33" s="3">
         <v>8</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M33" s="5">
         <v>8</v>
       </c>
       <c r="N33" s="5"/>
       <c r="O33" s="5" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="Q33" s="3">
         <v>8</v>
       </c>
       <c r="R33" s="5"/>
       <c r="S33" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G35" s="16" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G36" s="15" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G37" s="13" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G38" s="8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G39" s="17" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="G40" s="28" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/Kurasik/doc/DIN8SW8 - Mala rozdzielnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Mala rozdzielnia.xlsx
@@ -549,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -643,6 +643,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -950,7 +953,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -960,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView tabSelected="1" topLeftCell="H10" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,7 +1574,7 @@
         <v>3</v>
       </c>
       <c r="N17" s="4"/>
-      <c r="O17" s="16" t="s">
+      <c r="O17" s="15" t="s">
         <v>125</v>
       </c>
       <c r="Q17" s="3">
@@ -1682,7 +1685,7 @@
       <c r="N20" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="O20" s="9" t="s">
+      <c r="O20" s="32" t="s">
         <v>129</v>
       </c>
       <c r="Q20" s="3">
@@ -1904,7 +1907,7 @@
       <c r="Q27" s="3">
         <v>2</v>
       </c>
-      <c r="S27" s="16" t="s">
+      <c r="S27" s="15" t="s">
         <v>124</v>
       </c>
     </row>

--- a/Kurasik/doc/DIN8SW8 - Mala rozdzielnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Mala rozdzielnia.xlsx
@@ -204,12 +204,6 @@
     <t>rad_126</t>
   </si>
   <si>
-    <t>gn_134</t>
-  </si>
-  <si>
-    <t>gn_135</t>
-  </si>
-  <si>
     <t>rad_125</t>
   </si>
   <si>
@@ -460,6 +454,12 @@
   </si>
   <si>
     <t>gn_120</t>
+  </si>
+  <si>
+    <t>gn_129</t>
+  </si>
+  <si>
+    <t>gn_130</t>
   </si>
 </sst>
 </file>
@@ -638,14 +638,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -963,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H10" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,7 +1030,7 @@
         <v>2</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -1089,29 +1089,29 @@
         <v>1</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M3" s="3">
         <v>1</v>
       </c>
-      <c r="N3" s="30"/>
+      <c r="N3" s="31"/>
       <c r="O3" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q3" s="3">
         <v>1</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="U3" s="3">
         <v>1</v>
       </c>
-      <c r="V3" s="31" t="s">
-        <v>102</v>
+      <c r="V3" s="32" t="s">
+        <v>100</v>
       </c>
       <c r="W3" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -1131,27 +1131,27 @@
         <v>2</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M4" s="3">
         <v>2</v>
       </c>
-      <c r="N4" s="30"/>
+      <c r="N4" s="31"/>
       <c r="O4" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q4" s="3">
         <v>2</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U4" s="3">
         <v>2</v>
       </c>
-      <c r="V4" s="31"/>
+      <c r="V4" s="32"/>
       <c r="W4" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -1165,7 +1165,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I5" s="3">
         <v>3</v>
@@ -1177,25 +1177,25 @@
         <v>3</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="O5" s="25" t="s">
-        <v>112</v>
+        <v>105</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>110</v>
       </c>
       <c r="Q5" s="3">
         <v>3</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U5" s="3">
         <v>3</v>
       </c>
-      <c r="V5" s="31" t="s">
-        <v>101</v>
+      <c r="V5" s="32" t="s">
+        <v>99</v>
       </c>
       <c r="W5" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -1221,23 +1221,23 @@
         <v>4</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O6" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q6" s="3">
         <v>4</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="U6" s="3">
         <v>4</v>
       </c>
-      <c r="V6" s="31"/>
+      <c r="V6" s="32"/>
       <c r="W6" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -1263,16 +1263,16 @@
         <v>5</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O7" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q7" s="3">
         <v>5</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="U7" s="3">
         <v>5</v>
@@ -1303,16 +1303,16 @@
         <v>6</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q8" s="3">
         <v>6</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>62</v>
+        <v>91</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>146</v>
       </c>
       <c r="U8" s="3">
         <v>6</v>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I9" s="3">
         <v>7</v>
@@ -1344,16 +1344,16 @@
         <v>7</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q9" s="3">
         <v>7</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="U9" s="3">
         <v>7</v>
@@ -1384,19 +1384,19 @@
         <v>8</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q10" s="3">
         <v>8</v>
       </c>
       <c r="R10" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="U10" s="3">
         <v>8</v>
@@ -1499,10 +1499,10 @@
         <v>1</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O15" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q15" s="3">
         <v>1</v>
@@ -1522,10 +1522,10 @@
         <v>2</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>110</v>
+        <v>117</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>108</v>
       </c>
       <c r="I16" s="3">
         <v>2</v>
@@ -1538,16 +1538,16 @@
         <v>2</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O16" s="23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="3">
         <v>2</v>
       </c>
       <c r="S16" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I17" s="3">
         <v>3</v>
@@ -1575,16 +1575,16 @@
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="3">
         <v>3</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I18" s="3">
         <v>4</v>
@@ -1611,10 +1611,10 @@
         <v>4</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O18" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q18" s="3">
         <v>4</v>
@@ -1641,16 +1641,16 @@
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M19" s="3">
         <v>5</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O19" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q19" s="3">
         <v>5</v>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I20" s="3">
         <v>6</v>
@@ -1683,19 +1683,19 @@
         <v>6</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="O20" s="32" t="s">
-        <v>129</v>
+        <v>81</v>
+      </c>
+      <c r="O20" s="30" t="s">
+        <v>127</v>
       </c>
       <c r="Q20" s="3">
         <v>6</v>
       </c>
       <c r="R20" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="S20" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -1716,21 +1716,21 @@
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M21" s="3">
         <v>7</v>
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q21" s="3">
         <v>7</v>
       </c>
       <c r="R21" s="12"/>
       <c r="S21" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M22" s="3">
         <v>8</v>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="R22" s="12"/>
       <c r="S22" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -1850,28 +1850,28 @@
         <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M26" s="5">
         <v>1</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O26" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>1</v>
+      </c>
+      <c r="R26" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="S26" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>1</v>
-      </c>
-      <c r="R26" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="S26" s="9" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -1886,29 +1886,29 @@
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I27" s="3">
         <v>2</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M27" s="5">
         <v>2</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q27" s="3">
         <v>2</v>
       </c>
       <c r="S27" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -1935,16 +1935,16 @@
       </c>
       <c r="N28" s="5"/>
       <c r="O28" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q28" s="3">
         <v>3</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="S28" s="25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -1975,10 +1975,10 @@
         <v>4</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -1998,23 +1998,23 @@
         <v>5</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M30" s="5">
         <v>5</v>
       </c>
       <c r="N30" s="5"/>
       <c r="O30" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q30" s="3">
         <v>5</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="S30" s="4" t="s">
         <v>60</v>
@@ -2031,7 +2031,7 @@
         <v>6</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I31" s="3">
         <v>6</v>
@@ -2043,14 +2043,14 @@
         <v>6</v>
       </c>
       <c r="N31" s="5"/>
-      <c r="O31" s="5" t="s">
-        <v>139</v>
+      <c r="O31" s="30" t="s">
+        <v>137</v>
       </c>
       <c r="Q31" s="3">
         <v>6</v>
       </c>
       <c r="S31" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -2077,16 +2077,16 @@
       </c>
       <c r="N32" s="5"/>
       <c r="O32" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q32" s="3">
         <v>7</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="S32" s="4" t="s">
-        <v>61</v>
+        <v>92</v>
+      </c>
+      <c r="S32" s="16" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -2100,7 +2100,7 @@
         <v>8</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I33" s="3">
         <v>8</v>
@@ -2113,44 +2113,44 @@
       </c>
       <c r="N33" s="5"/>
       <c r="O33" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q33" s="3">
         <v>8</v>
       </c>
       <c r="R33" s="5"/>
       <c r="S33" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G35" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G36" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G37" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G38" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G39" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="G40" s="28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Kurasik/doc/DIN8SW8 - Mala rozdzielnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Mala rozdzielnia.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="141">
   <si>
     <t>Pomieszczenie</t>
   </si>
@@ -264,9 +264,6 @@
     <t>pralnia</t>
   </si>
   <si>
-    <t>led 1.08</t>
-  </si>
-  <si>
     <t>impuls (1s)</t>
   </si>
   <si>
@@ -330,12 +327,6 @@
     <t>rol_147</t>
   </si>
   <si>
-    <t>Piazza do furtki</t>
-  </si>
-  <si>
-    <t>Parapety 2</t>
-  </si>
-  <si>
     <t>podjazd I</t>
   </si>
   <si>
@@ -357,9 +348,6 @@
     <t>obw_152</t>
   </si>
   <si>
-    <t>obw_158</t>
-  </si>
-  <si>
     <t>zew ???</t>
   </si>
   <si>
@@ -369,15 +357,9 @@
     <t>obw_160</t>
   </si>
   <si>
-    <t>wejście garaż</t>
-  </si>
-  <si>
     <t>Parapety 1 front</t>
   </si>
   <si>
-    <t>lampy płot ???</t>
-  </si>
-  <si>
     <t>dyzurka</t>
   </si>
   <si>
@@ -387,12 +369,6 @@
     <t>obw_155 (36/2)</t>
   </si>
   <si>
-    <t>promiennik przy jadalni A</t>
-  </si>
-  <si>
-    <t>promiennik przy jadalni B</t>
-  </si>
-  <si>
     <t>niezaprogramowane (nowe)</t>
   </si>
   <si>
@@ -426,9 +402,6 @@
     <t>gn_119</t>
   </si>
   <si>
-    <t>wczesniej 26</t>
-  </si>
-  <si>
     <t>gn_115</t>
   </si>
   <si>
@@ -460,13 +433,22 @@
   </si>
   <si>
     <t>gn_130</t>
+  </si>
+  <si>
+    <t>taras jadalnia</t>
+  </si>
+  <si>
+    <t>prom_133_A</t>
+  </si>
+  <si>
+    <t>prom_133_B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,6 +469,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -549,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -638,14 +627,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -953,7 +945,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -963,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27:O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,7 +1022,7 @@
         <v>2</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -1102,16 +1094,16 @@
         <v>1</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="U3" s="3">
         <v>1</v>
       </c>
       <c r="V3" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="W3" s="23" t="s">
         <v>100</v>
-      </c>
-      <c r="W3" s="23" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -1144,14 +1136,14 @@
         <v>2</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="U4" s="3">
         <v>2</v>
       </c>
       <c r="V4" s="32"/>
       <c r="W4" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -1165,7 +1157,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I5" s="3">
         <v>3</v>
@@ -1177,25 +1169,25 @@
         <v>3</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O5" s="24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q5" s="3">
         <v>3</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="U5" s="3">
         <v>3</v>
       </c>
       <c r="V5" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W5" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -1221,23 +1213,23 @@
         <v>4</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O6" s="24" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="Q6" s="3">
         <v>4</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="U6" s="3">
         <v>4</v>
       </c>
       <c r="V6" s="32"/>
       <c r="W6" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -1263,16 +1255,16 @@
         <v>5</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O7" s="24" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="3">
         <v>5</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="U7" s="3">
         <v>5</v>
@@ -1309,10 +1301,10 @@
         <v>6</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="S8" s="16" t="s">
-        <v>146</v>
+        <v>90</v>
+      </c>
+      <c r="S8" s="30" t="s">
+        <v>137</v>
       </c>
       <c r="U8" s="3">
         <v>6</v>
@@ -1344,16 +1336,16 @@
         <v>7</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>114</v>
       </c>
       <c r="Q9" s="3">
         <v>7</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="U9" s="3">
         <v>7</v>
@@ -1384,19 +1376,19 @@
         <v>8</v>
       </c>
       <c r="N10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="Q10" s="3">
         <v>8</v>
       </c>
       <c r="R10" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U10" s="3">
         <v>8</v>
@@ -1498,11 +1490,9 @@
       <c r="M15" s="3">
         <v>1</v>
       </c>
-      <c r="N15" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="N15" s="4"/>
       <c r="O15" s="21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q15" s="3">
         <v>1</v>
@@ -1522,10 +1512,10 @@
         <v>2</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I16" s="3">
         <v>2</v>
@@ -1537,17 +1527,15 @@
       <c r="M16" s="3">
         <v>2</v>
       </c>
-      <c r="N16" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="N16" s="4"/>
       <c r="O16" s="23" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="3">
         <v>2</v>
       </c>
       <c r="S16" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -1573,18 +1561,20 @@
       <c r="M17" s="3">
         <v>3</v>
       </c>
-      <c r="N17" s="4"/>
+      <c r="N17" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="O17" s="15" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="Q17" s="3">
         <v>3</v>
       </c>
       <c r="R17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="S17" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -1610,11 +1600,9 @@
       <c r="M18" s="3">
         <v>4</v>
       </c>
-      <c r="N18" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="N18" s="4"/>
       <c r="O18" s="25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q18" s="3">
         <v>4</v>
@@ -1641,16 +1629,14 @@
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="27" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="M19" s="3">
         <v>5</v>
       </c>
-      <c r="N19" s="21" t="s">
-        <v>104</v>
-      </c>
+      <c r="N19" s="21"/>
       <c r="O19" s="24" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="3">
         <v>5</v>
@@ -1682,20 +1668,18 @@
       <c r="M20" s="3">
         <v>6</v>
       </c>
-      <c r="N20" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="O20" s="30" t="s">
-        <v>127</v>
+      <c r="N20" s="18"/>
+      <c r="O20" s="33" t="s">
+        <v>119</v>
       </c>
       <c r="Q20" s="3">
         <v>6</v>
       </c>
       <c r="R20" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S20" s="23" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -1723,14 +1707,14 @@
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="Q21" s="3">
         <v>7</v>
       </c>
       <c r="R21" s="12"/>
       <c r="S21" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -1764,7 +1748,7 @@
       </c>
       <c r="R22" s="12"/>
       <c r="S22" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -1850,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>61</v>
@@ -1859,19 +1843,19 @@
         <v>1</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q26" s="3">
         <v>1</v>
       </c>
       <c r="R26" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -1898,17 +1882,18 @@
       <c r="M27" s="5">
         <v>2</v>
       </c>
-      <c r="N27" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>134</v>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="Q27" s="3">
         <v>2</v>
       </c>
+      <c r="R27" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="S27" s="15" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -1935,16 +1920,16 @@
       </c>
       <c r="N28" s="5"/>
       <c r="O28" s="9" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="Q28" s="3">
         <v>3</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="S28" s="25" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -1978,7 +1963,7 @@
         <v>80</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -2001,20 +1986,20 @@
         <v>62</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M30" s="5">
         <v>5</v>
       </c>
       <c r="N30" s="5"/>
       <c r="O30" s="9" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="Q30" s="3">
         <v>5</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S30" s="4" t="s">
         <v>60</v>
@@ -2031,7 +2016,7 @@
         <v>6</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I31" s="3">
         <v>6</v>
@@ -2043,8 +2028,8 @@
         <v>6</v>
       </c>
       <c r="N31" s="5"/>
-      <c r="O31" s="30" t="s">
-        <v>137</v>
+      <c r="O31" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="Q31" s="3">
         <v>6</v>
@@ -2077,16 +2062,16 @@
       </c>
       <c r="N32" s="5"/>
       <c r="O32" s="26" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="Q32" s="3">
         <v>7</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="S32" s="16" t="s">
-        <v>145</v>
+        <v>91</v>
+      </c>
+      <c r="S32" s="30" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -2100,7 +2085,7 @@
         <v>8</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="I33" s="3">
         <v>8</v>
@@ -2113,7 +2098,7 @@
       </c>
       <c r="N33" s="5"/>
       <c r="O33" s="5" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="Q33" s="3">
         <v>8</v>
@@ -2125,7 +2110,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G35" s="16" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -2150,7 +2135,7 @@
     </row>
     <row r="40" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="G40" s="28" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Kurasik/doc/DIN8SW8 - Mala rozdzielnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Mala rozdzielnia.xlsx
@@ -538,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -630,14 +630,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -945,7 +948,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -956,7 +959,7 @@
   <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27:O27"/>
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,7 +1089,7 @@
       <c r="M3" s="3">
         <v>1</v>
       </c>
-      <c r="N3" s="31"/>
+      <c r="N3" s="33"/>
       <c r="O3" s="4" t="s">
         <v>74</v>
       </c>
@@ -1099,7 +1102,7 @@
       <c r="U3" s="3">
         <v>1</v>
       </c>
-      <c r="V3" s="32" t="s">
+      <c r="V3" s="34" t="s">
         <v>99</v>
       </c>
       <c r="W3" s="23" t="s">
@@ -1128,7 +1131,7 @@
       <c r="M4" s="3">
         <v>2</v>
       </c>
-      <c r="N4" s="31"/>
+      <c r="N4" s="33"/>
       <c r="O4" s="4" t="s">
         <v>74</v>
       </c>
@@ -1141,7 +1144,7 @@
       <c r="U4" s="3">
         <v>2</v>
       </c>
-      <c r="V4" s="32"/>
+      <c r="V4" s="34"/>
       <c r="W4" s="23" t="s">
         <v>100</v>
       </c>
@@ -1183,7 +1186,7 @@
       <c r="U5" s="3">
         <v>3</v>
       </c>
-      <c r="V5" s="32" t="s">
+      <c r="V5" s="34" t="s">
         <v>98</v>
       </c>
       <c r="W5" s="23" t="s">
@@ -1227,7 +1230,7 @@
       <c r="U6" s="3">
         <v>4</v>
       </c>
-      <c r="V6" s="32"/>
+      <c r="V6" s="34"/>
       <c r="W6" s="23" t="s">
         <v>101</v>
       </c>
@@ -1564,7 +1567,7 @@
       <c r="N17" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="O17" s="15" t="s">
+      <c r="O17" s="31" t="s">
         <v>140</v>
       </c>
       <c r="Q17" s="3">
@@ -1669,7 +1672,7 @@
         <v>6</v>
       </c>
       <c r="N20" s="18"/>
-      <c r="O20" s="33" t="s">
+      <c r="O20" s="32" t="s">
         <v>119</v>
       </c>
       <c r="Q20" s="3">
@@ -1892,7 +1895,7 @@
       <c r="R27" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="S27" s="15" t="s">
+      <c r="S27" s="31" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2034,7 +2037,7 @@
       <c r="Q31" s="3">
         <v>6</v>
       </c>
-      <c r="S31" s="15" t="s">
+      <c r="S31" s="24" t="s">
         <v>72</v>
       </c>
     </row>

--- a/Kurasik/doc/DIN8SW8 - Mala rozdzielnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Mala rozdzielnia.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="142">
   <si>
     <t>Pomieszczenie</t>
   </si>
@@ -442,13 +442,16 @@
   </si>
   <si>
     <t>prom_133_B</t>
+  </si>
+  <si>
+    <t>!!! USZKODZONE !!!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,8 +484,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,6 +536,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -538,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -606,9 +623,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -635,6 +649,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -958,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,7 +1112,7 @@
       <c r="M3" s="3">
         <v>1</v>
       </c>
-      <c r="N3" s="33"/>
+      <c r="N3" s="35"/>
       <c r="O3" s="4" t="s">
         <v>74</v>
       </c>
@@ -1102,10 +1125,10 @@
       <c r="U3" s="3">
         <v>1</v>
       </c>
-      <c r="V3" s="34" t="s">
+      <c r="V3" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="W3" s="23" t="s">
+      <c r="W3" s="22" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1131,7 +1154,7 @@
       <c r="M4" s="3">
         <v>2</v>
       </c>
-      <c r="N4" s="33"/>
+      <c r="N4" s="35"/>
       <c r="O4" s="4" t="s">
         <v>74</v>
       </c>
@@ -1144,8 +1167,8 @@
       <c r="U4" s="3">
         <v>2</v>
       </c>
-      <c r="V4" s="34"/>
-      <c r="W4" s="23" t="s">
+      <c r="V4" s="36"/>
+      <c r="W4" s="22" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1159,7 +1182,7 @@
       <c r="E5" s="3">
         <v>3</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="28" t="s">
         <v>120</v>
       </c>
       <c r="I5" s="3">
@@ -1174,7 +1197,7 @@
       <c r="N5" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="O5" s="23" t="s">
         <v>107</v>
       </c>
       <c r="Q5" s="3">
@@ -1186,10 +1209,10 @@
       <c r="U5" s="3">
         <v>3</v>
       </c>
-      <c r="V5" s="34" t="s">
+      <c r="V5" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="W5" s="23" t="s">
+      <c r="W5" s="22" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1218,7 +1241,7 @@
       <c r="N6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="O6" s="23" t="s">
         <v>114</v>
       </c>
       <c r="Q6" s="3">
@@ -1230,8 +1253,8 @@
       <c r="U6" s="3">
         <v>4</v>
       </c>
-      <c r="V6" s="34"/>
-      <c r="W6" s="23" t="s">
+      <c r="V6" s="36"/>
+      <c r="W6" s="22" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1260,7 +1283,7 @@
       <c r="N7" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="O7" s="24" t="s">
+      <c r="O7" s="23" t="s">
         <v>114</v>
       </c>
       <c r="Q7" s="3">
@@ -1306,7 +1329,7 @@
       <c r="R8" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="S8" s="30" t="s">
+      <c r="S8" s="29" t="s">
         <v>137</v>
       </c>
       <c r="U8" s="3">
@@ -1341,7 +1364,7 @@
       <c r="N9" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="O9" s="24" t="s">
+      <c r="O9" s="23" t="s">
         <v>114</v>
       </c>
       <c r="Q9" s="3">
@@ -1517,7 +1540,7 @@
       <c r="F16" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="23" t="s">
         <v>105</v>
       </c>
       <c r="I16" s="3">
@@ -1531,13 +1554,13 @@
         <v>2</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="23" t="s">
+      <c r="O16" s="22" t="s">
         <v>110</v>
       </c>
       <c r="Q16" s="3">
         <v>2</v>
       </c>
-      <c r="S16" s="25" t="s">
+      <c r="S16" s="24" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1567,7 +1590,7 @@
       <c r="N17" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="O17" s="31" t="s">
+      <c r="O17" s="30" t="s">
         <v>140</v>
       </c>
       <c r="Q17" s="3">
@@ -1604,7 +1627,7 @@
         <v>4</v>
       </c>
       <c r="N18" s="4"/>
-      <c r="O18" s="25" t="s">
+      <c r="O18" s="24" t="s">
         <v>111</v>
       </c>
       <c r="Q18" s="3">
@@ -1631,14 +1654,14 @@
         <v>5</v>
       </c>
       <c r="J19" s="5"/>
-      <c r="K19" s="27" t="s">
+      <c r="K19" s="26" t="s">
         <v>118</v>
       </c>
       <c r="M19" s="3">
         <v>5</v>
       </c>
       <c r="N19" s="21"/>
-      <c r="O19" s="24" t="s">
+      <c r="O19" s="23" t="s">
         <v>115</v>
       </c>
       <c r="Q19" s="3">
@@ -1672,7 +1695,7 @@
         <v>6</v>
       </c>
       <c r="N20" s="18"/>
-      <c r="O20" s="32" t="s">
+      <c r="O20" s="31" t="s">
         <v>119</v>
       </c>
       <c r="Q20" s="3">
@@ -1681,7 +1704,7 @@
       <c r="R20" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="S20" s="23" t="s">
+      <c r="S20" s="22" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1895,7 +1918,7 @@
       <c r="R27" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="S27" s="31" t="s">
+      <c r="S27" s="30" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1931,7 +1954,7 @@
       <c r="R28" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="S28" s="25" t="s">
+      <c r="S28" s="24" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1945,7 +1968,9 @@
       <c r="E29" s="3">
         <v>4</v>
       </c>
-      <c r="G29" s="8"/>
+      <c r="G29" s="32" t="s">
+        <v>51</v>
+      </c>
       <c r="I29" s="3">
         <v>4</v>
       </c>
@@ -1985,10 +2010,10 @@
       <c r="I30" s="3">
         <v>5</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="K30" s="22" t="s">
+      <c r="K30" s="33" t="s">
         <v>106</v>
       </c>
       <c r="M30" s="5">
@@ -2037,7 +2062,7 @@
       <c r="Q31" s="3">
         <v>6</v>
       </c>
-      <c r="S31" s="24" t="s">
+      <c r="S31" s="23" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2057,14 +2082,14 @@
       <c r="I32" s="3">
         <v>7</v>
       </c>
-      <c r="K32" s="4" t="s">
-        <v>51</v>
+      <c r="K32" s="34" t="s">
+        <v>141</v>
       </c>
       <c r="M32" s="5">
         <v>7</v>
       </c>
       <c r="N32" s="5"/>
-      <c r="O32" s="26" t="s">
+      <c r="O32" s="25" t="s">
         <v>129</v>
       </c>
       <c r="Q32" s="3">
@@ -2073,7 +2098,7 @@
       <c r="R32" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S32" s="30" t="s">
+      <c r="S32" s="29" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2087,7 +2112,7 @@
       <c r="E33" s="3">
         <v>8</v>
       </c>
-      <c r="G33" s="27" t="s">
+      <c r="G33" s="26" t="s">
         <v>125</v>
       </c>
       <c r="I33" s="3">
@@ -2137,7 +2162,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="G40" s="28" t="s">
+      <c r="G40" s="27" t="s">
         <v>117</v>
       </c>
     </row>

--- a/Kurasik/doc/DIN8SW8 - Mala rozdzielnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Mala rozdzielnia.xlsx
@@ -555,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -659,11 +659,17 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -971,7 +977,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -981,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,7 +1118,7 @@
       <c r="M3" s="3">
         <v>1</v>
       </c>
-      <c r="N3" s="35"/>
+      <c r="N3" s="36"/>
       <c r="O3" s="4" t="s">
         <v>74</v>
       </c>
@@ -1125,7 +1131,7 @@
       <c r="U3" s="3">
         <v>1</v>
       </c>
-      <c r="V3" s="36" t="s">
+      <c r="V3" s="37" t="s">
         <v>99</v>
       </c>
       <c r="W3" s="22" t="s">
@@ -1154,7 +1160,7 @@
       <c r="M4" s="3">
         <v>2</v>
       </c>
-      <c r="N4" s="35"/>
+      <c r="N4" s="36"/>
       <c r="O4" s="4" t="s">
         <v>74</v>
       </c>
@@ -1167,7 +1173,7 @@
       <c r="U4" s="3">
         <v>2</v>
       </c>
-      <c r="V4" s="36"/>
+      <c r="V4" s="37"/>
       <c r="W4" s="22" t="s">
         <v>100</v>
       </c>
@@ -1209,7 +1215,7 @@
       <c r="U5" s="3">
         <v>3</v>
       </c>
-      <c r="V5" s="36" t="s">
+      <c r="V5" s="37" t="s">
         <v>98</v>
       </c>
       <c r="W5" s="22" t="s">
@@ -1253,7 +1259,7 @@
       <c r="U6" s="3">
         <v>4</v>
       </c>
-      <c r="V6" s="36"/>
+      <c r="V6" s="37"/>
       <c r="W6" s="22" t="s">
         <v>101</v>
       </c>
@@ -1295,8 +1301,8 @@
       <c r="U7" s="3">
         <v>5</v>
       </c>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="8"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -1335,8 +1341,8 @@
       <c r="U8" s="3">
         <v>6</v>
       </c>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="8"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1376,8 +1382,8 @@
       <c r="U9" s="3">
         <v>7</v>
       </c>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="8"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -1420,7 +1426,7 @@
         <v>8</v>
       </c>
       <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
+      <c r="W10" s="38"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="O11" s="4"/>

--- a/Kurasik/doc/DIN8SW8 - Mala rozdzielnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Mala rozdzielnia.xlsx
@@ -493,7 +493,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -542,6 +542,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -555,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -662,14 +668,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -977,7 +986,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -987,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,7 +1127,7 @@
       <c r="M3" s="3">
         <v>1</v>
       </c>
-      <c r="N3" s="36"/>
+      <c r="N3" s="37"/>
       <c r="O3" s="4" t="s">
         <v>74</v>
       </c>
@@ -1131,7 +1140,7 @@
       <c r="U3" s="3">
         <v>1</v>
       </c>
-      <c r="V3" s="37" t="s">
+      <c r="V3" s="38" t="s">
         <v>99</v>
       </c>
       <c r="W3" s="22" t="s">
@@ -1160,7 +1169,7 @@
       <c r="M4" s="3">
         <v>2</v>
       </c>
-      <c r="N4" s="36"/>
+      <c r="N4" s="37"/>
       <c r="O4" s="4" t="s">
         <v>74</v>
       </c>
@@ -1173,7 +1182,7 @@
       <c r="U4" s="3">
         <v>2</v>
       </c>
-      <c r="V4" s="37"/>
+      <c r="V4" s="38"/>
       <c r="W4" s="22" t="s">
         <v>100</v>
       </c>
@@ -1215,7 +1224,7 @@
       <c r="U5" s="3">
         <v>3</v>
       </c>
-      <c r="V5" s="37" t="s">
+      <c r="V5" s="38" t="s">
         <v>98</v>
       </c>
       <c r="W5" s="22" t="s">
@@ -1259,7 +1268,7 @@
       <c r="U6" s="3">
         <v>4</v>
       </c>
-      <c r="V6" s="37"/>
+      <c r="V6" s="38"/>
       <c r="W6" s="22" t="s">
         <v>101</v>
       </c>
@@ -1426,7 +1435,7 @@
         <v>8</v>
       </c>
       <c r="V10" s="9"/>
-      <c r="W10" s="38"/>
+      <c r="W10" s="36"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="O11" s="4"/>
@@ -1745,7 +1754,7 @@
         <v>7</v>
       </c>
       <c r="R21" s="12"/>
-      <c r="S21" s="4" t="s">
+      <c r="S21" s="39" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1779,7 +1788,7 @@
         <v>8</v>
       </c>
       <c r="R22" s="12"/>
-      <c r="S22" s="4" t="s">
+      <c r="S22" s="39" t="s">
         <v>88</v>
       </c>
     </row>

--- a/Kurasik/doc/DIN8SW8 - Mala rozdzielnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Mala rozdzielnia.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="146">
   <si>
     <t>Pomieszczenie</t>
   </si>
@@ -445,6 +445,18 @@
   </si>
   <si>
     <t>!!! USZKODZONE !!!</t>
+  </si>
+  <si>
+    <t>PondFilter (Q2.1)</t>
+  </si>
+  <si>
+    <t>PondFilter (Q2.2) (40/5)</t>
+  </si>
+  <si>
+    <t>PondFilter (Q2.3) (40/5)</t>
+  </si>
+  <si>
+    <t>Filtr stawu</t>
   </si>
 </sst>
 </file>
@@ -561,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -665,19 +677,16 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -986,7 +995,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -997,7 +1006,7 @@
   <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,8 +1319,12 @@
       <c r="U7" s="3">
         <v>5</v>
       </c>
-      <c r="V7" s="35"/>
-      <c r="W7" s="8"/>
+      <c r="V7" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="W7" s="16" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -1350,8 +1363,10 @@
       <c r="U8" s="3">
         <v>6</v>
       </c>
-      <c r="V8" s="35"/>
-      <c r="W8" s="8"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="16" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1391,8 +1406,10 @@
       <c r="U9" s="3">
         <v>7</v>
       </c>
-      <c r="V9" s="35"/>
-      <c r="W9" s="8"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="16" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -1435,7 +1452,7 @@
         <v>8</v>
       </c>
       <c r="V10" s="9"/>
-      <c r="W10" s="36"/>
+      <c r="W10" s="35"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="O11" s="4"/>
@@ -1754,7 +1771,7 @@
         <v>7</v>
       </c>
       <c r="R21" s="12"/>
-      <c r="S21" s="39" t="s">
+      <c r="S21" s="36" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1788,7 +1805,7 @@
         <v>8</v>
       </c>
       <c r="R22" s="12"/>
-      <c r="S22" s="39" t="s">
+      <c r="S22" s="36" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2182,10 +2199,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="V3:V4"/>
     <mergeCell ref="V5:V6"/>
+    <mergeCell ref="V7:V9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
